--- a/8семестр/Экология/2.xlsx
+++ b/8семестр/Экология/2.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
     <sheet name="4" sheetId="2" r:id="rId2"/>
+    <sheet name="5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>Параметр</t>
   </si>
@@ -173,6 +174,144 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>qт</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>M(2i)</t>
+  </si>
+  <si>
+    <t>M(3i)</t>
+  </si>
+  <si>
+    <t>M(4i)</t>
+  </si>
+  <si>
+    <t>MН(2)</t>
+  </si>
+  <si>
+    <t>MЛ(2)</t>
+  </si>
+  <si>
+    <t>MН(3)</t>
+  </si>
+  <si>
+    <t>MН(4)</t>
+  </si>
+  <si>
+    <t>MЛ(3)</t>
+  </si>
+  <si>
+    <t>MЛ(4)</t>
+  </si>
+  <si>
+    <t>Валовый выброс ЗВ Mi , т/год</t>
+  </si>
+  <si>
+    <t>Загрязняющие вещества</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Сажа</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NO2</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>Выброс в пределах установленных лимитов MЛi = k2 · Mi , т/год</t>
+  </si>
+  <si>
+    <t>Выбросы, не превышающие ПДВ</t>
+  </si>
+  <si>
+    <t>Базовый норматив платы за 1 т ЗВ HбНi , руб./т</t>
+  </si>
+  <si>
+    <t>Ставка платы за выброс 1 т ЗВ СНi = НбНi · КЭ · КГ, руб./т</t>
+  </si>
+  <si>
+    <t>Плата за выброс ПНi = CHi · MНi , руб./год</t>
+  </si>
+  <si>
+    <t>Выброс в пределах установленных лимитов</t>
+  </si>
+  <si>
+    <t>Базовый норматив платы за 1 т ЗВ HбЛi , руб./т</t>
+  </si>
+  <si>
+    <t>Ставка платы за выброс 1 т ЗВ СЛi = НбЛi · КЭ · КГ, руб./т</t>
+  </si>
+  <si>
+    <t>(МЛi - MНi), т/год</t>
+  </si>
+  <si>
+    <t>Плата за выброс ПЛi = CЛi · (МЛi - MНi), руб./год</t>
+  </si>
+  <si>
+    <t>Плата за выброс ПЛ</t>
+  </si>
+  <si>
+    <t>Сверхлимитный выброс</t>
+  </si>
+  <si>
+    <t>(Мi - МЛi), т/год</t>
+  </si>
+  <si>
+    <t>Плата за выброс ПСЛi = 5 СЛi · (Мi - МЛi), руб./год</t>
+  </si>
+  <si>
+    <t>Плата за выброс СУММА(ПСЛi руб./год)</t>
+  </si>
+  <si>
+    <t>Общая плата</t>
+  </si>
+  <si>
+    <t>П = (ПН+ПЛ+ПСЛ)·КИ, руб./год</t>
+  </si>
+  <si>
+    <t>Рф</t>
+  </si>
+  <si>
+    <t>КГ</t>
+  </si>
+  <si>
+    <t>Норматив предельно допустимого выброса ПДВ MH</t>
+  </si>
+  <si>
+    <t>Плата за выброс Сумма</t>
+  </si>
+  <si>
+    <t>Ки</t>
   </si>
 </sst>
 </file>
@@ -251,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -274,20 +413,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,6 +491,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -351,7 +551,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1681,15 +1880,15 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1698,27 +1897,27 @@
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1728,27 +1927,27 @@
         <f>B6*B7/200</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>300</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f>EXP(-1*$B$15*($E14)^(1/3))</f>
         <v>0.30777032759223411</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f>(1-$F14)/(1+($B$4/$B$5)*$F14)</f>
         <v>2.9603596347656497E-2</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f>($G14*$B$4+$B$5)/$B$5</f>
         <v>3.1529888252841087</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <f>$B$10/$H14</f>
         <v>1.7443766231884463</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1758,27 +1957,27 @@
         <f>B11*B12*(B14/B5)^(1/3)</f>
         <v>0.17602979710878161</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>600</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f t="shared" ref="F15:F18" si="0">EXP(-1*$B$15*($E15)^(1/3))</f>
         <v>0.22657193073647058</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <f t="shared" ref="G15:G18" si="1">(1-$F15)/(1+($B$4/$B$5)*$F15)</f>
         <v>4.4251624975646248E-2</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <f t="shared" ref="H15:H18" si="2">($G15*$B$4+$B$5)/$B$5</f>
         <v>4.2182999982288178</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f t="shared" ref="I15:I18" si="3">$B$10/$H15</f>
         <v>1.3038427808143904</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1786,27 +1985,27 @@
         <f>EXP(-1*B15*(B8)^(1/3))</f>
         <v>0.13331531613747344</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>900</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>0.18276593202146676</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <f t="shared" si="1"/>
         <v>5.7180953824534406E-2</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <f t="shared" si="2"/>
         <v>5.1586148236025018</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <f t="shared" si="3"/>
         <v>1.0661776829771317</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1816,27 +2015,27 @@
         <f>(1-B16)/(1+($B$4/$B$5)*B16)</f>
         <v>8.1031440424539469E-2</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>1200</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>0.15403187410281186</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <f t="shared" si="1"/>
         <v>6.9328476590734406E-2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <f t="shared" si="2"/>
         <v>6.0420710247806833</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <f t="shared" si="3"/>
         <v>0.91028390388701874</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1846,22 +2045,22 @@
         <f>(B17*$B$4+$B$5)/$B$5</f>
         <v>6.8931956672392332</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>1500</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f t="shared" si="0"/>
         <v>0.13331531613747344</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <f t="shared" si="1"/>
         <v>8.1031440424539469E-2</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <f t="shared" si="2"/>
         <v>6.8931956672392332</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <f t="shared" si="3"/>
         <v>0.79788827497519499</v>
       </c>
@@ -1915,17 +2114,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="3">
@@ -1933,7 +2132,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="3">
@@ -1941,7 +2140,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="3">
@@ -1957,7 +2156,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3">
@@ -1965,7 +2164,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3">
@@ -1973,7 +2172,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3">
@@ -1989,7 +2188,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3">
@@ -1997,7 +2196,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3">
@@ -2005,7 +2204,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3">
@@ -2021,7 +2220,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="4">
@@ -2030,7 +2229,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="4">
@@ -2039,7 +2238,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
@@ -2054,7 +2253,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="4">
@@ -2075,7 +2274,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="4">
@@ -2096,7 +2295,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="4">
@@ -2118,38 +2317,38 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <f>MIN(B21:E21)</f>
         <v>228.3009814612868</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="5">
         <f>(D20*B25+B7*B16)/(B25+B16)</f>
         <v>150</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="4">
@@ -2158,7 +2357,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="4">
@@ -2173,4 +2372,563 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4">
+        <f>85</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4">
+        <f>B2*B1*B8*(1-B9/100)</f>
+        <v>3.3600000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B3*$B$1*10^(-3)</f>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4">
+        <f>B4*$B$1*10^(-3)</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B5*$B$1*10^(-3)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="4">
+        <f>B6*B13</f>
+        <v>3.4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="4">
+        <f>$B$7*B13</f>
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="4">
+        <f>$B$6*B14</f>
+        <v>0.36</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19:D20" si="0">$B$7*B14</f>
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4">
+        <f>$B$6*B15</f>
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="16">
+        <f>B10</f>
+        <v>3.3600000000000008</v>
+      </c>
+      <c r="C25" s="16">
+        <f>B13</f>
+        <v>6.8</v>
+      </c>
+      <c r="D25" s="16">
+        <f>B14</f>
+        <v>0.72</v>
+      </c>
+      <c r="E25" s="16">
+        <f>B15</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="16">
+        <f>B10*B6</f>
+        <v>1.6800000000000004</v>
+      </c>
+      <c r="C26" s="16">
+        <f>B18</f>
+        <v>3.4</v>
+      </c>
+      <c r="D26" s="16">
+        <f>B19</f>
+        <v>0.36</v>
+      </c>
+      <c r="E26" s="16">
+        <f>B20</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="16">
+        <f>B7*B25</f>
+        <v>2.0160000000000005</v>
+      </c>
+      <c r="C27" s="16">
+        <f>D18</f>
+        <v>4.08</v>
+      </c>
+      <c r="D27" s="16">
+        <f>D19</f>
+        <v>0.432</v>
+      </c>
+      <c r="E27" s="16">
+        <f>D20</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="16">
+        <v>80</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="D29" s="16">
+        <v>52</v>
+      </c>
+      <c r="E29" s="16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="16">
+        <f>B29*$H$35*$H$36</f>
+        <v>182.4</v>
+      </c>
+      <c r="C30" s="16">
+        <f t="shared" ref="C30:E30" si="1">C29*$H$35*$H$36</f>
+        <v>1.3679999999999999</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="1"/>
+        <v>118.55999999999999</v>
+      </c>
+      <c r="E30" s="16">
+        <f t="shared" si="1"/>
+        <v>182.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="16">
+        <f>B30*B26</f>
+        <v>306.43200000000007</v>
+      </c>
+      <c r="C31" s="16">
+        <f t="shared" ref="C31:E31" si="2">C30*C26</f>
+        <v>4.6511999999999993</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="2"/>
+        <v>42.681599999999996</v>
+      </c>
+      <c r="E31" s="16">
+        <f t="shared" si="2"/>
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="23">
+        <f>SUM(B31:E31)</f>
+        <v>2177.7647999999999</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="16">
+        <v>400</v>
+      </c>
+      <c r="C34" s="16">
+        <v>3</v>
+      </c>
+      <c r="D34" s="16">
+        <v>260</v>
+      </c>
+      <c r="E34" s="16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="16">
+        <f>B34*$H$35*$H$36</f>
+        <v>912</v>
+      </c>
+      <c r="C35" s="16">
+        <f t="shared" ref="C35:E35" si="3">C34*$H$35*$H$36</f>
+        <v>6.839999999999999</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" si="3"/>
+        <v>592.79999999999995</v>
+      </c>
+      <c r="E35" s="16">
+        <f t="shared" si="3"/>
+        <v>912</v>
+      </c>
+      <c r="G35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="16">
+        <f>B27-B26</f>
+        <v>0.33600000000000008</v>
+      </c>
+      <c r="C36" s="16">
+        <f t="shared" ref="C36:E36" si="4">C27-C26</f>
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="D36" s="16">
+        <f t="shared" si="4"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="E36" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="16">
+        <f>B35*B36</f>
+        <v>306.43200000000007</v>
+      </c>
+      <c r="C37" s="16">
+        <f t="shared" ref="C37:E37" si="5">C35*C36</f>
+        <v>4.6512000000000002</v>
+      </c>
+      <c r="D37" s="16">
+        <f t="shared" si="5"/>
+        <v>42.681600000000003</v>
+      </c>
+      <c r="E37" s="16">
+        <f t="shared" si="5"/>
+        <v>1824</v>
+      </c>
+      <c r="G37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="23">
+        <f>SUM(B37:E37)</f>
+        <v>2177.7647999999999</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B25-B27</f>
+        <v>1.3440000000000003</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" ref="C40:E40" si="6">C25-C27</f>
+        <v>2.7199999999999998</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="6"/>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="4">
+        <f>5*B35*B40</f>
+        <v>6128.6400000000012</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" ref="C41:E41" si="7">5*C35*C40</f>
+        <v>93.023999999999987</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="7"/>
+        <v>853.63199999999995</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="7"/>
+        <v>36480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="19">
+        <f>SUM(B41:E41)</f>
+        <v>43555.296000000002</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="19">
+        <f>(B42+B38+B32)*H37</f>
+        <v>80011.078751999987</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B42:E42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/8семестр/Экология/2.xlsx
+++ b/8семестр/Экология/2.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="1" r:id="rId1"/>
     <sheet name="4" sheetId="2" r:id="rId2"/>
     <sheet name="5" sheetId="3" r:id="rId3"/>
+    <sheet name="6" sheetId="4" r:id="rId4"/>
+    <sheet name="7" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="166">
   <si>
     <t>Параметр</t>
   </si>
@@ -312,13 +314,220 @@
   </si>
   <si>
     <t>Ки</t>
+  </si>
+  <si>
+    <t>Наименование оборудования</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>µ</t>
+  </si>
+  <si>
+    <t>dм</t>
+  </si>
+  <si>
+    <t>С вх</t>
+  </si>
+  <si>
+    <t>р</t>
+  </si>
+  <si>
+    <t>Крекинг установка</t>
+  </si>
+  <si>
+    <t>проверки dm &gt; 2*d(t) 50</t>
+  </si>
+  <si>
+    <t>ЦН-24</t>
+  </si>
+  <si>
+    <t>ЦН-15у</t>
+  </si>
+  <si>
+    <t>ЦН-15</t>
+  </si>
+  <si>
+    <t>ЦН-11</t>
+  </si>
+  <si>
+    <t>СДК-ЦН-33</t>
+  </si>
+  <si>
+    <t>СК-ЦН-34</t>
+  </si>
+  <si>
+    <t>СК-ЦН-34м</t>
+  </si>
+  <si>
+    <t>d(t) 50</t>
+  </si>
+  <si>
+    <t>Проверка</t>
+  </si>
+  <si>
+    <t>Циклон</t>
+  </si>
+  <si>
+    <t>ТУТ надо выбрать истину с максимальным значением ниже</t>
+  </si>
+  <si>
+    <t>w оп</t>
+  </si>
+  <si>
+    <t>тут  нужно округлить что бы были значение 100, 200, 300 и тд</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>ζ</t>
+  </si>
+  <si>
+    <t>ζ500</t>
+  </si>
+  <si>
+    <t>∆P</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>d50</t>
+  </si>
+  <si>
+    <t>lg б</t>
+  </si>
+  <si>
+    <t>lg бт</t>
+  </si>
+  <si>
+    <t>Ф(X)</t>
+  </si>
+  <si>
+    <t>η</t>
+  </si>
+  <si>
+    <t>ТУТ надо выбрать по значению X Рисунок выше</t>
+  </si>
+  <si>
+    <t>2* d(t) 50</t>
+  </si>
+  <si>
+    <t>Cвых</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ТР, га</t>
+  </si>
+  <si>
+    <t>К1</t>
+  </si>
+  <si>
+    <t>Э, м3 /су</t>
+  </si>
+  <si>
+    <t>Е, м3 /сут</t>
+  </si>
+  <si>
+    <t>Л, %</t>
+  </si>
+  <si>
+    <t>В, км</t>
+  </si>
+  <si>
+    <t>К3</t>
+  </si>
+  <si>
+    <t>К4</t>
+  </si>
+  <si>
+    <t>Д1</t>
+  </si>
+  <si>
+    <t>Д2</t>
+  </si>
+  <si>
+    <t>Д1(max)</t>
+  </si>
+  <si>
+    <t>Д1(min)</t>
+  </si>
+  <si>
+    <t>Д2(юж.1к)</t>
+  </si>
+  <si>
+    <t>Д2(юж.2к)</t>
+  </si>
+  <si>
+    <t>Д2(сев.1к)</t>
+  </si>
+  <si>
+    <t>Д2(сев.2к)</t>
+  </si>
+  <si>
+    <t>Д3</t>
+  </si>
+  <si>
+    <t>Д4</t>
+  </si>
+  <si>
+    <t>Д4(жар кл.)</t>
+  </si>
+  <si>
+    <t>Д4(ум кл)</t>
+  </si>
+  <si>
+    <t>Д5</t>
+  </si>
+  <si>
+    <t>Д5(лес, max ум кл)</t>
+  </si>
+  <si>
+    <t>Д5(лес,min ум кл)</t>
+  </si>
+  <si>
+    <t>Д5(лес, min жар кл)</t>
+  </si>
+  <si>
+    <t>Д5(лес, max жар кл)</t>
+  </si>
+  <si>
+    <t>Д5(степь,min ум кл)</t>
+  </si>
+  <si>
+    <t>Д5(степь, max ум кл)</t>
+  </si>
+  <si>
+    <t>Д5(степь, min жар кл)</t>
+  </si>
+  <si>
+    <t>Д5(степь, max жар кл)</t>
+  </si>
+  <si>
+    <t>Д6</t>
+  </si>
+  <si>
+    <t>Д6(min)</t>
+  </si>
+  <si>
+    <t>Д6(max)</t>
+  </si>
+  <si>
+    <t>ВНИМАНИЕ Я ХЗ КАКИЕ ИЗ списка Д1-Д6 выбирать поэтому сделал рандомные в методичке хз что правда нужно всё расчеты в график, то по варианту смотреть территорию когда она не указана…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,8 +578,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,8 +613,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -450,11 +685,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -492,11 +741,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,6 +770,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,8 +786,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,6 +824,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -843,7 +1117,305 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'7'!$D$5:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Д1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Д2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Д3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Д4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Д5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Д6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'7'!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>326123.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>440266.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1174044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133333.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29351.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9E0C-4900-8E91-E3D455DA20B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1600136208"/>
+        <c:axId val="1600137040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1600136208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1600137040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1600137040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1600136208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1046,6 +1618,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1510,6 +2585,160 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168267</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>495153</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8734198" y="4867350"/>
+          <a:ext cx="8268765" cy="2047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241789</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>526515</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>39816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8367347" y="1135673"/>
+          <a:ext cx="8190476" cy="3857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>73269</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609497</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>92186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2879481" y="3216519"/>
+          <a:ext cx="4457143" cy="1066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>455341</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>96643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172843</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1780,7 +3009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -1880,15 +3109,15 @@
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2115,7 +3344,7 @@
   <dimension ref="A2:N28"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,19 +3562,19 @@
         <f>(D20*B25+B7*B16)/(B25+B16)</f>
         <v>150</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
@@ -2378,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
+    <sheetView topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2548,7 +3777,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="4" t="s">
         <v>70</v>
       </c>
@@ -2557,7 +3786,7 @@
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="4" t="s">
         <v>72</v>
       </c>
@@ -2635,13 +3864,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
@@ -2706,22 +3935,22 @@
       <c r="A32" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="33">
         <f>SUM(B31:E31)</f>
         <v>2177.7647999999999</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
@@ -2825,22 +4054,22 @@
       <c r="A38" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="33">
         <f>SUM(B37:E37)</f>
         <v>2177.7647999999999</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="25"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
@@ -2888,34 +4117,34 @@
       <c r="A42" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="28">
         <f>SUM(B41:E41)</f>
         <v>43555.296000000002</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="28">
         <f>(B42+B38+B32)*H37</f>
         <v>80011.078751999987</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2931,4 +4160,669 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="D2" s="3">
+        <v>17.3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.65</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="4" t="b">
+        <f>$E$2&gt; B8*2</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="b">
+        <f t="shared" ref="C9:H9" si="0">$E$2&gt; C8*2</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="4">
+        <f>B8*2</f>
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" ref="C10:H10" si="1">C8*2</f>
+        <v>12</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>7.3</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>4.62</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="23">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20">
+        <f>SQRT(4*B2/(PI()*B13))</f>
+        <v>0.85297447449169228</v>
+      </c>
+      <c r="C14" s="19">
+        <f>B14*1000</f>
+        <v>852.97447449169226</v>
+      </c>
+      <c r="D14" s="18">
+        <v>900</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="21">
+        <f>4*B2/(PI()*1*(D14)^2)</f>
+        <v>3.1438013450250933E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="20">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="20">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="20">
+        <f>B16*B17*B18</f>
+        <v>144.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="22">
+        <f>B19*C2*(B15^2)/2</f>
+        <v>9.189344903489328E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="4">
+        <f>C8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="4">
+        <f>LOG10(E2/B21)*1/(SQRT((F2^2+B23^2)))</f>
+        <v>1.128066519567793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="25">
+        <f>0.283</f>
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="17">
+        <f>1-1/(5.8*B22+0.5)</f>
+        <v>0.85801073233206804</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="4">
+        <f>0.5*(1+B24)</f>
+        <v>0.92900536616603402</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="4">
+        <f>G2*(1-B25)</f>
+        <v>0.70994633833965981</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="C24:G24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>195674</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="D2" s="36">
+        <v>3000000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="37">
+        <f>$A$2*$B$2*1000/30</f>
+        <v>326123.33333333331</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="38">
+        <f>B5</f>
+        <v>326123.33333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="37">
+        <f>$A$2*$B$2*1000/20</f>
+        <v>489185</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="38">
+        <f>B7</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="37">
+        <f>$D$2*0.25*1000/1000</f>
+        <v>750000</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="38">
+        <f>B11</f>
+        <v>440266.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="37">
+        <f>$D$2*0.25*1000/2000</f>
+        <v>375000</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="38">
+        <f>B12</f>
+        <v>1174044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="37">
+        <f>$D$2*0.1*1000/1000</f>
+        <v>300000</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="38">
+        <f>B16</f>
+        <v>133333.33333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="37">
+        <f>$D$2*0.1*1000/2000</f>
+        <v>150000</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="38">
+        <f>B22</f>
+        <v>29351.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="37">
+        <f>C2*A2*1000/40</f>
+        <v>440266.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="37">
+        <f>$A$2*$E$2*0.5*10/(200*0.3)</f>
+        <v>1174044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="37">
+        <f>$A$2*$E$2*0.5*10/(200*0.1)</f>
+        <v>3522132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="37">
+        <f>2*$F$2*0.5*1000/(0.5*0.1)</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="37">
+        <f>2*$F$2*0.5*1000/(0.5*0.15)</f>
+        <v>266666.66666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="37">
+        <f>2*$F$2*0.5*1000/(0.5*0.3)</f>
+        <v>133333.33333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="37">
+        <f>2*$F$2*0.5*1000/(0.5*0.4)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="37">
+        <f>2*$F$2*0.3*1000/(0.5*0.1)</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="37">
+        <f>2*$F$2*0.3*1000/(0.5*0.15)</f>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="37">
+        <f>2*$F$2*0.3*1000/(0.5*0.3)</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="37">
+        <f>2*$F$2*0.3*1000/(0.5*0.4)</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="37">
+        <f>$A$2*$G$2*$H$2*1000/500</f>
+        <v>29351.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="37">
+        <f>$A$2*$G$2*$H$2*1000/2000</f>
+        <v>7337.7749999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>